--- a/lib/test.xlsx
+++ b/lib/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sector 1</t>
   </si>
@@ -58,28 +58,19 @@
     <t xml:space="preserve">device_exp</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blanco Gutierréz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gblanco280205@crackthecode.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
+    <t xml:space="preserve">Javier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacheco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jepach@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
   </si>
 </sst>
 </file>
@@ -90,11 +81,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,6 +105,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="1"/>
@@ -160,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,6 +173,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,10 +204,10 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.11"/>
   </cols>
@@ -285,7 +288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -295,35 +298,24 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>70450297</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>38353</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="jepach@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/lib/test.xlsx
+++ b/lib/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t xml:space="preserve">Sector 1</t>
   </si>
@@ -28,34 +28,70 @@
     <t xml:space="preserve">Sector 2</t>
   </si>
   <si>
-    <t xml:space="preserve">first_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birthdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operating_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device_exp</t>
+    <t xml:space="preserve">Sector 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre estudiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellidos estudiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de nacimiento estudiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema operativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencia usando PC o tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de Ruta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Name</t>
   </si>
   <si>
     <t xml:space="preserve">Javier</t>
@@ -67,21 +103,125 @@
     <t xml:space="preserve">Padre</t>
   </si>
   <si>
-    <t xml:space="preserve">jepach@gmail.com</t>
+    <t xml:space="preserve">javier@mail.com</t>
   </si>
   <si>
     <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacheco Arteaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Creador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/3/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrea@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzales Prada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julio@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parado de Bellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugarteche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xime@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugarte Ugarteche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilantro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cilantro@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pardo Bizantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño con Photoshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagasti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagasti Bernidatsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,6 +256,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +329,22 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -201,14 +364,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.11"/>
   </cols>
   <sheetData>
@@ -249,72 +413,437 @@
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>42139</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>45612378</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>41187</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>65432101</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>39711</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>78945612</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>40869</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>95148762</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>62584972</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>44563</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="T8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="jepach@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId1" display="javier@mail.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="andrea@mail.com"/>
+    <hyperlink ref="D5" r:id="rId3" display="julio@mail.com"/>
+    <hyperlink ref="D6" r:id="rId4" display="xime@mail.com"/>
+    <hyperlink ref="D7" r:id="rId5" display="cilantro@mail.com"/>
+    <hyperlink ref="D8" r:id="rId6" display="jose@mail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
